--- a/Main/SASdata/Thomas/single_formue.xlsx
+++ b/Main/SASdata/Thomas/single_formue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\Thomas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Ny\SASdata\Thomas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C66496-C6FC-4994-859E-2C1C25A3E065}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215BE9A8-6904-4AFF-B165-97C78F98FB66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,47 +538,36 @@
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f>1856/100</f>
         <v>18.559999999999999</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:O5" si="0">1856/100</f>
         <v>18.559999999999999</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="O2" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="P2" s="3">
@@ -614,51 +603,40 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E5" si="1">1856/100</f>
         <v>18.559999999999999</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" si="0"/>
         <v>18.559999999999999</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P9" si="2">Q3/2</f>
+        <f t="shared" ref="P3:P9" si="0">Q3/2</f>
         <v>4.095000000000004E-3</v>
       </c>
       <c r="Q3" s="6">
@@ -690,51 +668,40 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="1"/>
         <v>18.559999999999999</v>
       </c>
       <c r="F4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="M4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="N4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="O4" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" si="2"/>
         <v>0.35259499999999999</v>
       </c>
       <c r="Q4" s="6">
@@ -764,51 +731,40 @@
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="1"/>
         <v>18.559999999999999</v>
       </c>
       <c r="F5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="I5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="P5" s="3">
         <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>18.559999999999999</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="2"/>
         <v>0.13240499999999999</v>
       </c>
       <c r="Q5" s="6">
@@ -842,51 +798,40 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f>1899/100</f>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:O9" si="3">1899/100</f>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.9698000000000018E-2</v>
       </c>
       <c r="Q6" s="6">
@@ -920,51 +865,40 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7:E9" si="4">1899/100</f>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.8020000000000042E-3</v>
       </c>
       <c r="Q7" s="6">
@@ -977,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" ref="T7:T8" si="5">T2-T5</f>
+        <f t="shared" ref="T7:T8" si="1">T2-T5</f>
         <v>0</v>
       </c>
       <c r="U7" s="8"/>
@@ -996,51 +930,40 @@
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="4"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.38230200000000003</v>
       </c>
       <c r="Q8" s="6">
@@ -1049,11 +972,11 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="12">
-        <f t="shared" ref="S8:T8" si="6">S3-S6</f>
+        <f t="shared" ref="S8" si="2">S3-S6</f>
         <v>0</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U8" s="8"/>
@@ -1072,51 +995,40 @@
         <v>3</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="4"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="3"/>
-        <v>18.989999999999998</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.3198000000000003E-2</v>
       </c>
       <c r="Q9" s="6">
